--- a/res/result.xlsx
+++ b/res/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,35 +464,45 @@
           <t>depend_contract_num</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>record_time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>/home/yy/Dataset/mainnet/8d/8d2AAE6a7EB63Ba89c36e82385f096d41074Cd87_Wallet.sol</t>
+          <t>/home/yy/Dataset/mainnet/c4/c479e26a7237c1839f44a09843699597ef23e2c3_Oracle.sol</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>single</t>
+          <t>cross</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>87.85463818935288</v>
+        <v>31.7743132887899</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>/home/yy/Dataset/mainnet/fe/fe9b5e8f7e8f6493f7d8532d915c9d53dffe9080_ArtCore.sol</t>
+          <t>/home/yy/Dataset/mainnet/c4/c479e26a7237c1839f44a09843699597ef23e2c3_Oracle.sol</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -501,46 +511,56 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>90.49839696881375</v>
+        <v>31.7743132887899</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>/home/yy/Dataset/mainnet/8d/8d2AAE6a7EB63Ba89c36e82385f096d41074Cd87_Wallet.sol</t>
+          <t>/home/yy/Dataset/mainnet/0a/0abdace70d3790235af448c88547603b945604ea_District0xNetworkToken.sol</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>cross</t>
+          <t>single</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>94.07076824992031</v>
+        <v>43.79479971890373</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>/home/yy/Dataset/mainnet/fe/fe9b5e8f7e8f6493f7d8532d915c9d53dffe9080_ArtCore.sol</t>
+          <t>/home/yy/Dataset/mainnet/0a/0abdace70d3790235af448c88547603b945604ea_District0xNetworkToken.sol</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -549,16 +569,4255 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>94.25823375109297</v>
+        <v>44.01967673928321</v>
       </c>
       <c r="D5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/29/291a1b4ba9e936741d5cb185ad74fa9a32d048d8_SimpleMarket.sol</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>48.07330827067669</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/29/291a1b4ba9e936741d5cb185ad74fa9a32d048d8_SimpleMarket.sol</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>48.07330827067669</v>
+      </c>
+      <c r="D7" t="n">
+        <v>30</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/f0/F0Fb984B464CDB7cbef0CC7222018BBba7F9e97E_Exchange.sol</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>48.32820061592609</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/f0/F0Fb984B464CDB7cbef0CC7222018BBba7F9e97E_Exchange.sol</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>48.32820061592609</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/d9/d92323a9d83bdb6818c3d493815e12c605844771_lockContract.sol</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>52.64693622342643</v>
+      </c>
+      <c r="D10" t="n">
+        <v>67</v>
+      </c>
+      <c r="E10" t="n">
         <v>2</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/d9/d92323a9d83bdb6818c3d493815e12c605844771_lockContract.sol</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>52.64693622342643</v>
+      </c>
+      <c r="D11" t="n">
+        <v>67</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/8c/8c14692589190d08e917e38bbee3ac10eaf0acb4_apexONE.sol</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>53.49579344357412</v>
+      </c>
+      <c r="D12" t="n">
+        <v>74</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/8c/8c14692589190d08e917e38bbee3ac10eaf0acb4_apexONE.sol</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>53.49579344357412</v>
+      </c>
+      <c r="D13" t="n">
+        <v>74</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/ae/aeb7a13d3608c673e99685798f9ba5ace41119d3_ThePoolz.sol</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>53.79406957739901</v>
+      </c>
+      <c r="D14" t="n">
+        <v>56</v>
+      </c>
+      <c r="E14" t="n">
+        <v>15</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/ae/aeb7a13d3608c673e99685798f9ba5ace41119d3_ThePoolz.sol</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>53.86411393882793</v>
+      </c>
+      <c r="D15" t="n">
+        <v>56</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/55/5562acc7749ed48ca4692a8d9d3cc25c3d8f9b2f_CoreContract.sol</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>56.08429639700883</v>
+      </c>
+      <c r="D16" t="n">
+        <v>41</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/55/5562acc7749ed48ca4692a8d9d3cc25c3d8f9b2f_CoreContract.sol</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>60.23113528212101</v>
+      </c>
+      <c r="D17" t="n">
+        <v>41</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/67/67f41953b90966257c71f6f271572399dfbfe16d_PeerLicensing.sol</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>63.71324236017683</v>
+      </c>
+      <c r="D18" t="n">
+        <v>44</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/0f/0f82c7eab8f7efb577a2de9d2b7e1da1d0b6870e_DistrictBuyer.sol</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>63.92857142857142</v>
+      </c>
+      <c r="D19" t="n">
+        <v>50</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/0f/0f82c7eab8f7efb577a2de9d2b7e1da1d0b6870e_DistrictBuyer.sol</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>63.92857142857142</v>
+      </c>
+      <c r="D20" t="n">
+        <v>50</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/67/67f41953b90966257c71f6f271572399dfbfe16d_PeerLicensing.sol</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>66.36555833173169</v>
+      </c>
+      <c r="D21" t="n">
+        <v>44</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/6c/6CF9af470571026bafc48D5Dd23B0521e9595394_fortunes.sol</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>69.22725889869182</v>
+      </c>
+      <c r="D22" t="n">
+        <v>9</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/15/155E52EdAF1D576E33A31ab4A5d3896Eb8E6C051_HanYinToken.sol</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>69.60206337509211</v>
+      </c>
+      <c r="D23" t="n">
+        <v>48</v>
+      </c>
+      <c r="E23" t="n">
+        <v>13</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/50/50f37df80a4e804a03275b21f83ebf5d5a668d39_AuctionPotato.sol</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>69.75924838520258</v>
+      </c>
+      <c r="D24" t="n">
+        <v>38</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/50/50f37df80a4e804a03275b21f83ebf5d5a668d39_AuctionPotato.sol</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>69.75924838520258</v>
+      </c>
+      <c r="D25" t="n">
+        <v>38</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/f2/F244176246168F24e3187f7288EdbCA29267739b_Havven.sol</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>72.51844399731723</v>
+      </c>
+      <c r="D26" t="n">
+        <v>49</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/f2/F244176246168F24e3187f7288EdbCA29267739b_Havven.sol</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>72.51844399731723</v>
+      </c>
+      <c r="D27" t="n">
+        <v>49</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/15/155E52EdAF1D576E33A31ab4A5d3896Eb8E6C051_HanYinToken.sol</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>73.55686563497912</v>
+      </c>
+      <c r="D28" t="n">
+        <v>48</v>
+      </c>
+      <c r="E28" t="n">
+        <v>19</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/01/01e53a2e7122a63845b1c329d4fce8124dda5b06_Loan.sol</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/01/01e53a2e7122a63845b1c329d4fce8124dda5b06_Loan.sol</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="D30" t="n">
+        <v>6</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/6c/6CF9af470571026bafc48D5Dd23B0521e9595394_fortunes.sol</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>74.53605111043504</v>
+      </c>
+      <c r="D31" t="n">
+        <v>9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/60/6020b82310ad0ca623beaca16c3c7014e5038f44_EMIToken.sol</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>76.47228637413394</v>
+      </c>
+      <c r="D32" t="n">
+        <v>12</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/91/91507ea472707e6587f359e0f71846ec097aefc7_Tccchain.sol</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>81.96078431372548</v>
+      </c>
+      <c r="D33" t="n">
+        <v>65</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/91/91507ea472707e6587f359e0f71846ec097aefc7_Tccchain.sol</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>81.96078431372548</v>
+      </c>
+      <c r="D34" t="n">
+        <v>65</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/12/12db622c98d75f6f19493d9acbc7479fe382ec44_TBECrowdsale.sol</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>82.29043683589138</v>
+      </c>
+      <c r="D35" t="n">
+        <v>17</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/e7/e71c0f3930fd0b123a744dad4f9a6b98a07fe7d6_Cider.sol</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>82.35963581183611</v>
+      </c>
+      <c r="D36" t="n">
         <v>3</v>
       </c>
-      <c r="F5" t="n">
-        <v>1</v>
+      <c r="E36" t="n">
+        <v>13</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/41/41875c2332b0877cdfaa699b641402b7d4642c32_FUTURAX.sol</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>82.85928143712576</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" t="n">
+        <v>5</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/41/41875c2332b0877cdfaa699b641402b7d4642c32_FUTURAX.sol</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>82.85928143712576</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/7b/7b2dF125567815ac9b57DA04B620F50bc93B320C_Archetypal.sol</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>82.85928143712576</v>
+      </c>
+      <c r="D39" t="n">
+        <v>16</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/7b/7b2dF125567815ac9b57DA04B620F50bc93B320C_Archetypal.sol</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>82.85928143712576</v>
+      </c>
+      <c r="D40" t="n">
+        <v>16</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/c5/c589acb9da47e14a7131e7a1aa7bf577a7f5d2fd_TestSale.sol</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>83.08605341246292</v>
+      </c>
+      <c r="D41" t="n">
+        <v>8</v>
+      </c>
+      <c r="E41" t="n">
+        <v>8</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/50/50f90bd2053db1fd57f656aa027714b2bbb96b2e_NTOKTokenContract.sol</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>83.37662337662337</v>
+      </c>
+      <c r="D42" t="n">
+        <v>7</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/50/50f90bd2053db1fd57f656aa027714b2bbb96b2e_NTOKTokenContract.sol</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>83.37662337662337</v>
+      </c>
+      <c r="D43" t="n">
+        <v>7</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/c5/c589acb9da47e14a7131e7a1aa7bf577a7f5d2fd_TestSale.sol</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>83.60534124629081</v>
+      </c>
+      <c r="D44" t="n">
+        <v>8</v>
+      </c>
+      <c r="E44" t="n">
+        <v>12</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/ee/eed3856ecbcb09b20cba1b3f5d448fed860483ba_DappleAirdrops.sol</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>86.8515419555343</v>
+      </c>
+      <c r="D45" t="n">
+        <v>69</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/ee/eed3856ecbcb09b20cba1b3f5d448fed860483ba_DappleAirdrops.sol</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>86.87544824288787</v>
+      </c>
+      <c r="D46" t="n">
+        <v>69</v>
+      </c>
+      <c r="E46" t="n">
+        <v>6</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/97/97a578ed93c72421b63307874bd2e1c6398f1baf_BECToken.sol</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>86.91704498555509</v>
+      </c>
+      <c r="D47" t="n">
+        <v>14</v>
+      </c>
+      <c r="E47" t="n">
+        <v>8</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/97/97a578ed93c72421b63307874bd2e1c6398f1baf_BECToken.sol</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>86.91704498555509</v>
+      </c>
+      <c r="D48" t="n">
+        <v>14</v>
+      </c>
+      <c r="E48" t="n">
+        <v>11</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/a7/a705d6fc756ae8e8800c0c2c12eed995ba50a6b4_HFCoin.sol</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>90.1639344262295</v>
+      </c>
+      <c r="D49" t="n">
+        <v>11</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/a7/a705d6fc756ae8e8800c0c2c12eed995ba50a6b4_HFCoin.sol</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>90.1639344262295</v>
+      </c>
+      <c r="D50" t="n">
+        <v>11</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/6b/6b27bfd273ec79a64a62b4b3a18a89045c2389b1_TokenERC20.sol</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>90.33311561071196</v>
+      </c>
+      <c r="D51" t="n">
+        <v>63</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/6b/6b27bfd273ec79a64a62b4b3a18a89045c2389b1_TokenERC20.sol</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>90.33311561071196</v>
+      </c>
+      <c r="D52" t="n">
+        <v>63</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/fd/fd9903f1fb9687417233a0711796db7b5264535a_EZOERC20.sol</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>90.50673508659398</v>
+      </c>
+      <c r="D53" t="n">
+        <v>57</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/fd/fd9903f1fb9687417233a0711796db7b5264535a_EZOERC20.sol</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>90.50673508659398</v>
+      </c>
+      <c r="D54" t="n">
+        <v>57</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/ab/ab51e836bdcbc7cc06d926c50d88328f1bb17148_TokenERC20.sol</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>90.50673508659398</v>
+      </c>
+      <c r="D55" t="n">
+        <v>58</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/ab/ab51e836bdcbc7cc06d926c50d88328f1bb17148_TokenERC20.sol</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>90.50673508659398</v>
+      </c>
+      <c r="D56" t="n">
+        <v>58</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/12/12db622c98d75f6f19493d9acbc7479fe382ec44_TBECrowdsale.sol</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>91.44037780401418</v>
+      </c>
+      <c r="D57" t="n">
+        <v>17</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/fb/fb0357df5d18f95a0560a8cf10a33b0eca025a8d_COSHATokenCNY.sol</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>91.6156382477626</v>
+      </c>
+      <c r="D58" t="n">
+        <v>64</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/fb/fb0357df5d18f95a0560a8cf10a33b0eca025a8d_COSHATokenCNY.sol</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>91.6156382477626</v>
+      </c>
+      <c r="D59" t="n">
+        <v>64</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/96/96cd136f1afb1f8934e6cb6495eaf24140f70325_RGEToken.sol</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>92</v>
+      </c>
+      <c r="D60" t="n">
+        <v>42</v>
+      </c>
+      <c r="E60" t="n">
+        <v>5</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/96/96cd136f1afb1f8934e6cb6495eaf24140f70325_RGEToken.sol</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>92</v>
+      </c>
+      <c r="D61" t="n">
+        <v>42</v>
+      </c>
+      <c r="E61" t="n">
+        <v>5</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/81/812ca87923816668b9950f57d06db2ab32cf4cd2_FixedDecimalsStandardToken.sol</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>92.18328840970351</v>
+      </c>
+      <c r="D62" t="n">
+        <v>20</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/81/812ca87923816668b9950f57d06db2ab32cf4cd2_FixedDecimalsStandardToken.sol</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>92.18328840970351</v>
+      </c>
+      <c r="D63" t="n">
+        <v>20</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/d7/d76ababc8887a72453f5f48ea831b782e49c557a_PizzaCoin.sol</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>93.20165365181442</v>
+      </c>
+      <c r="D64" t="n">
+        <v>43</v>
+      </c>
+      <c r="E64" t="n">
+        <v>9</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/d7/d76ababc8887a72453f5f48ea831b782e49c557a_PizzaCoin.sol</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>93.20165365181442</v>
+      </c>
+      <c r="D65" t="n">
+        <v>43</v>
+      </c>
+      <c r="E65" t="n">
+        <v>12</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/9e/9eec65e5b998db6845321baa915ec3338b1a469b_MyAdvancedToken.sol</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>93.72950819672131</v>
+      </c>
+      <c r="D66" t="n">
+        <v>26</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/9e/9eec65e5b998db6845321baa915ec3338b1a469b_MyAdvancedToken.sol</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>93.72950819672131</v>
+      </c>
+      <c r="D67" t="n">
+        <v>26</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/d7/d7404b6b59d9e1ff9a70bec66b4c332f9f8ef7ed_AKQA.sol</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>93.79932356257046</v>
+      </c>
+      <c r="D68" t="n">
+        <v>23</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/d7/d7404b6b59d9e1ff9a70bec66b4c332f9f8ef7ed_AKQA.sol</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>93.79932356257046</v>
+      </c>
+      <c r="D69" t="n">
+        <v>23</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/1b/1b5f3b42a7dbd89fb6e4942de51876beb89ab969_GOOGLE.sol</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>94.31818181818183</v>
+      </c>
+      <c r="D70" t="n">
+        <v>45</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/1b/1b5f3b42a7dbd89fb6e4942de51876beb89ab969_GOOGLE.sol</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>94.31818181818183</v>
+      </c>
+      <c r="D71" t="n">
+        <v>45</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/62/62f3ed09ad0f2bcfa433d3352b466e298741912b_AlbinoShibaInu.sol</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>94.34647302904564</v>
+      </c>
+      <c r="D72" t="n">
+        <v>24</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/62/62f3ed09ad0f2bcfa433d3352b466e298741912b_AlbinoShibaInu.sol</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>94.34647302904564</v>
+      </c>
+      <c r="D73" t="n">
+        <v>24</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/73/73e21acf73a2e7cb7514e65811ba7ba79abc2deb_ShibaProtocol.sol</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>94.34647302904564</v>
+      </c>
+      <c r="D74" t="n">
+        <v>71</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/73/73e21acf73a2e7cb7514e65811ba7ba79abc2deb_ShibaProtocol.sol</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>94.34647302904564</v>
+      </c>
+      <c r="D75" t="n">
+        <v>71</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/d9/d9555279b1c18b7aa388f053ebc0ab22e2497964_ReactioonToken.sol</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>94.34647302904564</v>
+      </c>
+      <c r="D76" t="n">
+        <v>54</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/d9/d9555279b1c18b7aa388f053ebc0ab22e2497964_ReactioonToken.sol</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>94.34647302904564</v>
+      </c>
+      <c r="D77" t="n">
+        <v>54</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/c8/c8e31adc6e58915cca13c83b4c716b06dae97166_WFW.sol</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>94.34647302904564</v>
+      </c>
+      <c r="D78" t="n">
+        <v>62</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/c8/c8e31adc6e58915cca13c83b4c716b06dae97166_WFW.sol</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>94.34647302904564</v>
+      </c>
+      <c r="D79" t="n">
+        <v>62</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/60/6020b82310ad0ca623beaca16c3c7014e5038f44_EMIToken.sol</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>95.03464203233256</v>
+      </c>
+      <c r="D80" t="n">
+        <v>12</v>
+      </c>
+      <c r="E80" t="n">
+        <v>5</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/e7/e71c0f3930fd0b123a744dad4f9a6b98a07fe7d6_Cider.sol</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>95.25796661608497</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3</v>
+      </c>
+      <c r="E81" t="n">
+        <v>15</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/e1/e10292e9ea7500a4f664d4911ae80151c69a08a0_MastermindAlliancePublishingGroupToken.sol</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>95.43568464730291</v>
+      </c>
+      <c r="D82" t="n">
+        <v>60</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/e1/e10292e9ea7500a4f664d4911ae80151c69a08a0_MastermindAlliancePublishingGroupToken.sol</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>95.43568464730291</v>
+      </c>
+      <c r="D83" t="n">
+        <v>60</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/fd/fdcc07Ab60660de533b5Ad26e1457b565a9D59Bd_Martcoin.sol</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>95.55325749741469</v>
+      </c>
+      <c r="D84" t="n">
+        <v>66</v>
+      </c>
+      <c r="E84" t="n">
+        <v>4</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/2d/2defd2f0e4ac1abae40993401b151b28dc6b2e98_AUTSCoin.sol</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>95.56566230812962</v>
+      </c>
+      <c r="D85" t="n">
+        <v>27</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/2d/2defd2f0e4ac1abae40993401b151b28dc6b2e98_AUTSCoin.sol</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>95.56566230812962</v>
+      </c>
+      <c r="D86" t="n">
+        <v>27</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/37/377C59Bd50AAB876E41231DEe4339BF8e14C48a9_Calahex.sol</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>95.6549935149157</v>
+      </c>
+      <c r="D87" t="n">
+        <v>37</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/37/377C59Bd50AAB876E41231DEe4339BF8e14C48a9_Calahex.sol</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>95.6549935149157</v>
+      </c>
+      <c r="D88" t="n">
+        <v>37</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/3b/3becba56f35eea87ab3f6e299d431c7dee90405f_PLCCToken.sol</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>95.86919104991394</v>
+      </c>
+      <c r="D89" t="n">
+        <v>10</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/3b/3becba56f35eea87ab3f6e299d431c7dee90405f_PLCCToken.sol</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>95.86919104991394</v>
+      </c>
+      <c r="D90" t="n">
+        <v>10</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/0a/0a5dc2204dfc6082ef3bbcfc3a468f16318c4168_PandaGoldToken.sol</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>95.89360709286048</v>
+      </c>
+      <c r="D91" t="n">
+        <v>29</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/0a/0a5dc2204dfc6082ef3bbcfc3a468f16318c4168_PandaGoldToken.sol</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>95.89360709286048</v>
+      </c>
+      <c r="D92" t="n">
+        <v>29</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/fd/fdcc07Ab60660de533b5Ad26e1457b565a9D59Bd_Martcoin.sol</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>96.32885211995863</v>
+      </c>
+      <c r="D93" t="n">
+        <v>66</v>
+      </c>
+      <c r="E93" t="n">
+        <v>4</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/e9/e97ef43d21b26ac18f21669a5b8152130f525b6f_SwiftDex.sol</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>96.4321608040201</v>
+      </c>
+      <c r="D94" t="n">
+        <v>4</v>
+      </c>
+      <c r="E94" t="n">
+        <v>14</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/e9/e97ef43d21b26ac18f21669a5b8152130f525b6f_SwiftDex.sol</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>96.4321608040201</v>
+      </c>
+      <c r="D95" t="n">
+        <v>4</v>
+      </c>
+      <c r="E95" t="n">
+        <v>15</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/d0/D0b13c1195F1C50be0d3bE956ff32AAeBB48E1e4_FccToken.sol</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>96.68989547038328</v>
+      </c>
+      <c r="D96" t="n">
+        <v>13</v>
+      </c>
+      <c r="E96" t="n">
+        <v>4</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/d0/D0b13c1195F1C50be0d3bE956ff32AAeBB48E1e4_FccToken.sol</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>96.68989547038328</v>
+      </c>
+      <c r="D97" t="n">
+        <v>13</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/f4/f4ada683181837c150cd0c33881dd874230eb5ae_CustomToken.sol</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>96.81481481481482</v>
+      </c>
+      <c r="D98" t="n">
+        <v>52</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/f4/f4ada683181837c150cd0c33881dd874230eb5ae_CustomToken.sol</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>96.81481481481482</v>
+      </c>
+      <c r="D99" t="n">
+        <v>52</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/de/de5cc1c7d7bd95acb79d96b3b17eb6edd941803a_GIRLToken.sol</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>97.00636942675159</v>
+      </c>
+      <c r="D100" t="n">
+        <v>68</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/de/de5cc1c7d7bd95acb79d96b3b17eb6edd941803a_GIRLToken.sol</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>97.00636942675159</v>
+      </c>
+      <c r="D101" t="n">
+        <v>68</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/00/007b749fd9c28455f03a57c005f4249693550e51_TraceChain.sol</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>97.09715639810426</v>
+      </c>
+      <c r="D102" t="n">
+        <v>33</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/00/007b749fd9c28455f03a57c005f4249693550e51_TraceChain.sol</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>97.09715639810426</v>
+      </c>
+      <c r="D103" t="n">
+        <v>33</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/92/92c0f0e0dd28d8602794e0c312a552c832215c47_VietnamGemstoneChain.sol</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>97.28978457261988</v>
+      </c>
+      <c r="D104" t="n">
+        <v>73</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/bc/bce25455ca1a77694abe38b75e8a8b939317241d_FruoCoinBETA.sol</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>97.28978457261988</v>
+      </c>
+      <c r="D105" t="n">
+        <v>34</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/bc/bce25455ca1a77694abe38b75e8a8b939317241d_FruoCoinBETA.sol</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>97.28978457261988</v>
+      </c>
+      <c r="D106" t="n">
+        <v>34</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/92/92c0f0e0dd28d8602794e0c312a552c832215c47_VietnamGemstoneChain.sol</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>97.28978457261988</v>
+      </c>
+      <c r="D107" t="n">
+        <v>73</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/03/03a76034b6b33011acea6eddbb0423b79540eed7_XZBX.sol</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>97.41275571600482</v>
+      </c>
+      <c r="D108" t="n">
+        <v>39</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/03/03a76034b6b33011acea6eddbb0423b79540eed7_XZBX.sol</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>97.41275571600482</v>
+      </c>
+      <c r="D109" t="n">
+        <v>39</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/14/14fb4c93fe461ec3f9f22b61ab7030f258867969_Amorcoin.sol</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>97.42233972240581</v>
+      </c>
+      <c r="D110" t="n">
+        <v>32</v>
+      </c>
+      <c r="E110" t="n">
+        <v>4</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/14/14fb4c93fe461ec3f9f22b61ab7030f258867969_Amorcoin.sol</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>97.42233972240581</v>
+      </c>
+      <c r="D111" t="n">
+        <v>32</v>
+      </c>
+      <c r="E111" t="n">
+        <v>4</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/2e/2ea20ba1c704db0822b78e146cd7a5f3b0342fb1_ZJLTToken.sol</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>97.43162108072048</v>
+      </c>
+      <c r="D112" t="n">
+        <v>70</v>
+      </c>
+      <c r="E112" t="n">
+        <v>4</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/2e/2ea20ba1c704db0822b78e146cd7a5f3b0342fb1_ZJLTToken.sol</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>97.43162108072048</v>
+      </c>
+      <c r="D113" t="n">
+        <v>70</v>
+      </c>
+      <c r="E113" t="n">
+        <v>4</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/b2/b21d8d79ccd5d7cfe3961b71b37ebd6202a95238_HLChain.sol</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>98.08429118773945</v>
+      </c>
+      <c r="D114" t="n">
+        <v>47</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/b2/b21d8d79ccd5d7cfe3961b71b37ebd6202a95238_HLChain.sol</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>98.08429118773945</v>
+      </c>
+      <c r="D115" t="n">
+        <v>47</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/25/25a1de1c3ee658fe034b8914a1d8d34110423af8_CheToken.sol</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>98.10503519220357</v>
+      </c>
+      <c r="D116" t="n">
+        <v>28</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/25/25a1de1c3ee658fe034b8914a1d8d34110423af8_CheToken.sol</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>98.10503519220357</v>
+      </c>
+      <c r="D117" t="n">
+        <v>28</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/09/09f6742e42daafae735e14ec53b5ee95b66c2886_TittyFarmer.sol</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>98.43652282676672</v>
+      </c>
+      <c r="D118" t="n">
+        <v>22</v>
+      </c>
+      <c r="E118" t="n">
+        <v>6</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/09/09f6742e42daafae735e14ec53b5ee95b66c2886_TittyFarmer.sol</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>98.43652282676672</v>
+      </c>
+      <c r="D119" t="n">
+        <v>22</v>
+      </c>
+      <c r="E119" t="n">
+        <v>7</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/fa/fa6f7881e52fdf912c4a285d78a3141b089ce859_AvocadoToken.sol</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>98.63263445761167</v>
+      </c>
+      <c r="D120" t="n">
+        <v>59</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/fa/fa6f7881e52fdf912c4a285d78a3141b089ce859_AvocadoToken.sol</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>98.63263445761167</v>
+      </c>
+      <c r="D121" t="n">
+        <v>59</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/b8/b87972abbfc219664e4a2f52954f5b9cedf7ea33_ExpressCoin.sol</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>98.7667009249743</v>
+      </c>
+      <c r="D122" t="n">
+        <v>36</v>
+      </c>
+      <c r="E122" t="n">
+        <v>11</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/b8/b87972abbfc219664e4a2f52954f5b9cedf7ea33_ExpressCoin.sol</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>98.7667009249743</v>
+      </c>
+      <c r="D123" t="n">
+        <v>36</v>
+      </c>
+      <c r="E123" t="n">
+        <v>10</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/21/2138ffe292fd0953f7fe2569111246e4de9ff1dc_MarketPrice.sol</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>98.858592263792</v>
+      </c>
+      <c r="D124" t="n">
+        <v>25</v>
+      </c>
+      <c r="E124" t="n">
+        <v>11</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/21/2138ffe292fd0953f7fe2569111246e4de9ff1dc_MarketPrice.sol</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>98.858592263792</v>
+      </c>
+      <c r="D125" t="n">
+        <v>25</v>
+      </c>
+      <c r="E125" t="n">
+        <v>11</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/08/083802265c0585a788df3c890fbb17d5362502b2_GeseToken.sol</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>98.95238095238095</v>
+      </c>
+      <c r="D126" t="n">
+        <v>31</v>
+      </c>
+      <c r="E126" t="n">
+        <v>3</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/08/083802265c0585a788df3c890fbb17d5362502b2_GeseToken.sol</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>98.95238095238095</v>
+      </c>
+      <c r="D127" t="n">
+        <v>31</v>
+      </c>
+      <c r="E127" t="n">
+        <v>3</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/58/58558971833807aca62cff89017f78465405ce11_Vitamin.sol</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>98.95409645554911</v>
+      </c>
+      <c r="D128" t="n">
+        <v>61</v>
+      </c>
+      <c r="E128" t="n">
+        <v>4</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/58/58558971833807aca62cff89017f78465405ce11_Vitamin.sol</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>98.95409645554911</v>
+      </c>
+      <c r="D129" t="n">
+        <v>61</v>
+      </c>
+      <c r="E129" t="n">
+        <v>3</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/16/16b3e773e5cb8b6db6d64b20ae0ecaa4edc83077_LAFINAL7.sol</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>99.0453460620525</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/16/16b3e773e5cb8b6db6d64b20ae0ecaa4edc83077_LAFINAL7.sol</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>99.0453460620525</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1</v>
+      </c>
+      <c r="E131" t="n">
+        <v>4</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/13/132ee44d48eec784b5380fa2827c8da176ae7b0c_TT.sol</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>99.12875121006776</v>
+      </c>
+      <c r="D132" t="n">
+        <v>51</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/13/132ee44d48eec784b5380fa2827c8da176ae7b0c_TT.sol</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>99.12875121006776</v>
+      </c>
+      <c r="D133" t="n">
+        <v>51</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/77/77e85eef9fd34143c7f042ce29e066602ca51abf_Identify.sol</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>99.15074309978769</v>
+      </c>
+      <c r="D134" t="n">
+        <v>19</v>
+      </c>
+      <c r="E134" t="n">
+        <v>3</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/77/77e85eef9fd34143c7f042ce29e066602ca51abf_Identify.sol</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>99.15074309978769</v>
+      </c>
+      <c r="D135" t="n">
+        <v>19</v>
+      </c>
+      <c r="E135" t="n">
+        <v>3</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/17/177d39ac676ed1c67a2b268ad7f1e58826e5b0af_CDTToken.sol</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>99.31469298245614</v>
+      </c>
+      <c r="D136" t="n">
+        <v>53</v>
+      </c>
+      <c r="E136" t="n">
+        <v>9</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/b1/b1c1cb8c7c1992dba24e628bf7d38e71dad46aeb_Cloudbric.sol</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>99.32933286268972</v>
+      </c>
+      <c r="D137" t="n">
+        <v>72</v>
+      </c>
+      <c r="E137" t="n">
+        <v>3</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/5c/5cb99e1919e7ca8d48bce2cde4eb8e0ac94fa546_RYCToken.sol</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>99.33645589383295</v>
+      </c>
+      <c r="D138" t="n">
+        <v>5</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/5c/5cb99e1919e7ca8d48bce2cde4eb8e0ac94fa546_RYCToken.sol</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>99.33645589383295</v>
+      </c>
+      <c r="D139" t="n">
+        <v>5</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/ca/caba23959e8a7db9c88cd6fb2d57d73141c8abcf_bigToken.sol</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>99.39347990902199</v>
+      </c>
+      <c r="D140" t="n">
+        <v>21</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/ca/caba23959e8a7db9c88cd6fb2d57d73141c8abcf_bigToken.sol</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>99.39347990902199</v>
+      </c>
+      <c r="D141" t="n">
+        <v>21</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/dc/dc52a972f6f570906b514845a13ade93cd0710b3_SoCoToken.sol</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>99.41133186166299</v>
+      </c>
+      <c r="D142" t="n">
+        <v>75</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/dc/dc52a972f6f570906b514845a13ade93cd0710b3_SoCoToken.sol</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>99.41133186166299</v>
+      </c>
+      <c r="D143" t="n">
+        <v>75</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/b1/b1c1cb8c7c1992dba24e628bf7d38e71dad46aeb_Cloudbric.sol</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>99.43522767384398</v>
+      </c>
+      <c r="D144" t="n">
+        <v>72</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/17/177d39ac676ed1c67a2b268ad7f1e58826e5b0af_CDTToken.sol</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>99.4517543859649</v>
+      </c>
+      <c r="D145" t="n">
+        <v>53</v>
+      </c>
+      <c r="E145" t="n">
+        <v>9</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/6a/6ae930630384c7a81308c03baa9bfa69c65bbf0b_NoahCoin.sol</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>99.47604790419162</v>
+      </c>
+      <c r="D146" t="n">
+        <v>18</v>
+      </c>
+      <c r="E146" t="n">
+        <v>3</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/6a/6ae930630384c7a81308c03baa9bfa69c65bbf0b_NoahCoin.sol</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>99.47604790419162</v>
+      </c>
+      <c r="D147" t="n">
+        <v>18</v>
+      </c>
+      <c r="E147" t="n">
+        <v>3</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/75/75c994c95b860ff67c75346e30790bc9cdacef91_FintechCoin.sol</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>99.50158586316266</v>
+      </c>
+      <c r="D148" t="n">
+        <v>55</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/75/75c994c95b860ff67c75346e30790bc9cdacef91_FintechCoin.sol</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>99.50158586316266</v>
+      </c>
+      <c r="D149" t="n">
+        <v>55</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/ce/cec1077309f29d0553f7197c0de3c0baedd8dbea_DSC.sol</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>99.80525803310614</v>
+      </c>
+      <c r="D150" t="n">
+        <v>35</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>/home/yy/Dataset/mainnet/ce/cec1077309f29d0553f7197c0de3c0baedd8dbea_DSC.sol</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>99.80525803310614</v>
+      </c>
+      <c r="D151" t="n">
+        <v>35</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>2022-09-22 23:23:08</t>
+        </is>
       </c>
     </row>
   </sheetData>
